--- a/spínaný zdroj.xlsx
+++ b/spínaný zdroj.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mechatronika\zdroj\v3.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mechatronika\zdroj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ED69DE-D10B-4BBF-B2B3-046F42A79023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55445A5D-F4B3-42C1-9AFE-09B53E43573A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE4775B2-EE30-450E-B878-E336E0EC1E8E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>LSB</t>
   </si>
@@ -179,10 +179,10 @@
     <t>------</t>
   </si>
   <si>
-    <t>Zatěž [Ω]</t>
+    <t>Odvození odporů děličů</t>
   </si>
   <si>
-    <t>vstupní data</t>
+    <t>Vypočtené hodnoty</t>
   </si>
 </sst>
 </file>
@@ -192,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,34 +216,25 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -283,17 +274,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -467,50 +447,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -1170,43 +1293,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79</c:v>
+                  <c:v>3.5199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5199999999999996</c:v>
+                  <c:v>2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4000000000000004</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>5.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.3</c:v>
+                  <c:v>12.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.2</c:v>
+                  <c:v>14.969999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.969999999999999</c:v>
+                  <c:v>14.370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.370000000000001</c:v>
+                  <c:v>16.63</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.63</c:v>
+                  <c:v>17.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.399999999999999</c:v>
+                  <c:v>18.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1225,7 +1348,7 @@
             <c:v>naměřené hodnoty</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="15875" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="23F400"/>
               </a:solidFill>
@@ -1248,53 +1371,56 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>List1!$J$33:$J$47</c:f>
+              <c:f>List1!$E$14:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -1302,53 +1428,56 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>List1!$K$33:$K$47</c:f>
+              <c:f>List1!$O$14:$O$29</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3.88</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.79</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7.52</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>6.4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>9.1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>9.9</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>12.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>12.8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>15.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>16.2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>18.97</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>18.37</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>20.63</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>21.4</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>22.71</c:v>
                 </c:pt>
               </c:numCache>
@@ -1477,54 +1606,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="16"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1.6843266302315913</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2.5022109897003064</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4.2862964629724196</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4.9565376199318969</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6.7406230932040092</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7.5585074526727229</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>10.012834082904316</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>10.348194447087478</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>12.802521077319071</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>13.620405436787784</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>15.404490910059899</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>16.074732067019376</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>17.858817540291486</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>18.676701899760204</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>21.131028529991791</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2446,16 +2527,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>32656</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>335214</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>48465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>337456</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>42041</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>34897</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>131688</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2780,10 +2861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36F6DF4-CC9C-4894-A98E-F351D1606D01}">
-  <dimension ref="E3:P55"/>
+  <dimension ref="E1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q50" sqref="Q50"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2794,1334 +2875,1322 @@
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+    <row r="1" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="44"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+      <c r="E4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>1500</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>3300</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>5100</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>6800</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <v>15000</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="16">
         <v>1.4</v>
       </c>
     </row>
-    <row r="5" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+    <row r="5" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="17">
         <f>1/(F4+$K$4)</f>
         <v>6.6604502464366589E-4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="17">
         <f>1/(G4+$K$4)</f>
         <v>3.0290179923668747E-4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="17">
         <f>1/(H4+$K$4)</f>
         <v>1.9602462069235897E-4</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="17">
         <f>1/(I4+$K$4)</f>
         <v>1.4702855294498193E-4</v>
       </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="5:16" x14ac:dyDescent="0.25">
       <c r="N6">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="5:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="N10" s="3" t="s">
+    <row r="9" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="5:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="21" t="s">
         <v>33</v>
       </c>
+      <c r="O10" s="20"/>
+      <c r="P10" s="22"/>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="N11" t="s">
+      <c r="E11" s="15"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="O12" t="s">
+    <row r="12" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="15"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
+    <row r="13" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="43" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E14">
+      <c r="E14" s="23">
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="23">
         <v>0</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="24"/>
+      <c r="I14" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="K14">
+      <c r="J14" s="24"/>
+      <c r="K14" s="24">
         <v>1.23</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="24">
         <v>1.23</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="38">
         <v>1.23</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="26">
         <f>1.23</f>
         <v>1.23</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E15">
+      <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <f>I5</f>
         <v>1.4702855294498193E-4</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="28">
         <f>I15*0.95</f>
         <v>6461.329999999999</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="28">
         <f>1/G15</f>
         <v>6801.4</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="28">
         <f>I15*1.05</f>
         <v>7141.47</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="28">
         <f t="shared" ref="K15:K29" si="0">1.23*(1+(($J$4*1.05)/H15))</f>
         <v>4.228221728343855</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="28">
         <f t="shared" ref="L15:L29" si="1">1.23*(1+($J$4/I15))</f>
         <v>3.9426768018349168</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="39">
         <f t="shared" ref="M15:M29" si="2">1.23*(1+(($J$4*0.95)/J15))</f>
         <v>3.6843266302315913</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="33">
         <f>$L15/3</f>
         <v>1.3142256006116388</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="29">
         <v>3.88</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E16">
+      <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <f>H5</f>
         <v>1.9602462069235897E-4</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="28">
         <f t="shared" ref="H16:H29" si="3">I16*0.95</f>
         <v>4846.329999999999</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="28">
         <f t="shared" ref="I16:I29" si="4">1/G16</f>
         <v>5101.3999999999996</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="28">
         <f t="shared" ref="J16:J29" si="5">I16*1.05</f>
         <v>5356.47</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="28">
         <f t="shared" si="0"/>
         <v>5.227354699329184</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="28">
         <f t="shared" si="1"/>
         <v>4.846654251774023</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="39">
         <f t="shared" si="2"/>
         <v>4.5022109897003064</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="33">
         <f t="shared" ref="N16:N29" si="6">$L16/3</f>
         <v>1.6155514172580077</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="29">
         <v>4.79</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17">
+      <c r="E17" s="1">
         <v>3</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <f>H5+I5</f>
         <v>3.430531736373409E-4</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="28">
         <f t="shared" si="3"/>
         <v>2769.249996807474</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="28">
         <f t="shared" si="4"/>
         <v>2914.9999966394462</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="28">
         <f t="shared" si="5"/>
         <v>3060.7499964714184</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="28">
         <f t="shared" si="0"/>
         <v>8.2255764276730385</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="28">
         <f t="shared" si="1"/>
         <v>7.5593310536089389</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="39">
         <f t="shared" si="2"/>
         <v>6.9565376199318969</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="33">
         <f t="shared" si="6"/>
         <v>2.5197770178696461</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="29">
         <v>7.52</v>
       </c>
-      <c r="P17" s="6">
-        <f>$K34-4</f>
-        <v>0.79</v>
+      <c r="P17" s="2">
+        <f>$O17-4</f>
+        <v>3.5199999999999996</v>
       </c>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E18">
+      <c r="E18" s="1">
         <v>4</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <f>G5</f>
         <v>3.0290179923668747E-4</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="28">
         <f t="shared" si="3"/>
         <v>3136.33</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="28">
         <f t="shared" si="4"/>
         <v>3301.4</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="28">
         <f t="shared" si="5"/>
         <v>3466.4700000000003</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="28">
         <f t="shared" si="0"/>
         <v>7.40680537443445</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="28">
         <f t="shared" si="1"/>
         <v>6.8185381959168838</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="39">
         <f t="shared" si="2"/>
         <v>6.2862964629724187</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="33">
         <f t="shared" si="6"/>
         <v>2.2728460653056279</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="29">
         <v>6.4</v>
       </c>
-      <c r="P18" s="6">
-        <f t="shared" ref="P18:P29" si="7">$K35-4</f>
-        <v>3.5199999999999996</v>
+      <c r="P18" s="2">
+        <f t="shared" ref="P18:P29" si="7">$O18-4</f>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19">
+      <c r="E19" s="1">
         <v>5</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <f>I5+G5</f>
         <v>4.4993035218166943E-4</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="28">
         <f t="shared" si="3"/>
         <v>2111.4379045413148</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="28">
         <f t="shared" si="4"/>
         <v>2222.5662153066473</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="28">
         <f t="shared" si="5"/>
         <v>2333.6945260719799</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="28">
         <f t="shared" si="0"/>
         <v>10.405027102778307</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="28">
         <f t="shared" si="1"/>
         <v>9.5312149977518015</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="39">
         <f t="shared" si="2"/>
         <v>8.7406230932040092</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="33">
         <f t="shared" si="6"/>
         <v>3.1770716659172673</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="29">
         <v>9.1</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="2">
         <f t="shared" si="7"/>
-        <v>2.4000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E20">
+      <c r="E20" s="1">
         <v>6</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <f>G5+H5</f>
         <v>4.9892641992904641E-4</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="28">
         <f t="shared" si="3"/>
         <v>1904.0883826819631</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="28">
         <f t="shared" si="4"/>
         <v>2004.303560717856</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="28">
         <f t="shared" si="5"/>
         <v>2104.5187387537489</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="28">
         <f t="shared" si="0"/>
         <v>11.404160073763634</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="28">
         <f t="shared" si="1"/>
         <v>10.435192447690907</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="39">
         <f t="shared" si="2"/>
         <v>9.5585074526727229</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="33">
         <f t="shared" si="6"/>
         <v>3.4783974825636359</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="29">
         <v>9.9</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="2">
         <f t="shared" si="7"/>
-        <v>5.0999999999999996</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E21">
+      <c r="E21" s="1">
         <v>7</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <f>G5+H5+I5</f>
         <v>6.4595497287402832E-4</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="28">
         <f t="shared" si="3"/>
         <v>1470.6907445470899</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="28">
         <f t="shared" si="4"/>
         <v>1548.0955205758842</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="28">
         <f t="shared" si="5"/>
         <v>1625.5002966046784</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="28">
         <f t="shared" si="0"/>
         <v>14.402381802107488</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="28">
         <f t="shared" si="1"/>
         <v>13.14786924952582</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="39">
         <f t="shared" si="2"/>
         <v>12.012834082904316</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="33">
         <f t="shared" si="6"/>
         <v>4.3826230831752735</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="29">
         <v>12.5</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="2">
         <f t="shared" si="7"/>
-        <v>5.9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22">
+      <c r="E22" s="1">
         <v>8</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <f>F5</f>
         <v>6.6604502464366589E-4</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="28">
         <f t="shared" si="3"/>
         <v>1426.33</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="28">
         <f t="shared" si="4"/>
         <v>1501.4</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="28">
         <f t="shared" si="5"/>
         <v>1576.4700000000003</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="28">
         <f t="shared" si="0"/>
         <v>14.812060252536231</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="28">
         <f t="shared" si="1"/>
         <v>13.518530704675635</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="39">
         <f t="shared" si="2"/>
         <v>12.348194447087478</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="33">
         <f t="shared" si="6"/>
         <v>4.5061769015585451</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="29">
         <v>12.8</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="2">
         <f t="shared" si="7"/>
-        <v>8.5</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23">
+      <c r="E23" s="1">
         <v>9</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <f>F5+I5</f>
         <v>8.1307357758864779E-4</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="28">
         <f t="shared" si="3"/>
         <v>1168.4059428144722</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="28">
         <f t="shared" si="4"/>
         <v>1229.9009924362865</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="28">
         <f t="shared" si="5"/>
         <v>1291.3960420581009</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="28">
         <f t="shared" si="0"/>
         <v>17.810281980880085</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="28">
         <f t="shared" si="1"/>
         <v>16.23120750651055</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="39">
         <f t="shared" si="2"/>
         <v>14.802521077319071</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="33">
         <f t="shared" si="6"/>
         <v>5.4104025021701831</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="29">
         <v>15.3</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="2">
         <f t="shared" si="7"/>
-        <v>8.8000000000000007</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24">
+      <c r="E24" s="1">
         <v>10</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <f>F5+H5</f>
         <v>8.6206964533602488E-4</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="28">
         <f t="shared" si="3"/>
         <v>1101.9991309747379</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="28">
         <f t="shared" si="4"/>
         <v>1159.9990852365663</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="28">
         <f t="shared" si="5"/>
         <v>1217.9990394983947</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="28">
         <f t="shared" si="0"/>
         <v>18.809414951865413</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="28">
         <f t="shared" si="1"/>
         <v>17.135184956449656</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="39">
         <f t="shared" si="2"/>
         <v>15.620405436787784</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="33">
         <f t="shared" si="6"/>
         <v>5.7117283188165517</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="29">
         <v>16.2</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="2">
         <f t="shared" si="7"/>
-        <v>11.3</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E25">
+      <c r="E25" s="1">
         <v>11</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <f>F5+H5+I5</f>
         <v>1.0090981982810068E-3</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="28">
         <f t="shared" si="3"/>
         <v>941.4346409678659</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="28">
         <f t="shared" si="4"/>
         <v>990.98383259775358</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="28">
         <f t="shared" si="5"/>
         <v>1040.5330242276414</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="28">
         <f t="shared" si="0"/>
         <v>21.807636680209264</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="28">
         <f t="shared" si="1"/>
         <v>19.847861758284576</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="39">
         <f t="shared" si="2"/>
         <v>18.074732067019376</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="33">
         <f t="shared" si="6"/>
         <v>6.6159539194281924</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="29">
         <v>18.97</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="2">
         <f t="shared" si="7"/>
-        <v>12.2</v>
+        <v>14.969999999999999</v>
       </c>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E26">
+      <c r="E26" s="1">
         <v>12</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <f>F5+G5</f>
         <v>9.6894682388035331E-4</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="28">
         <f t="shared" si="3"/>
         <v>980.4459611060214</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="28">
         <f t="shared" si="4"/>
         <v>1032.0483801116015</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="28">
         <f t="shared" si="5"/>
         <v>1083.6507991171816</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="28">
         <f t="shared" si="0"/>
         <v>20.988865626970682</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="28">
         <f t="shared" si="1"/>
         <v>19.10706890059252</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="39">
         <f t="shared" si="2"/>
         <v>17.404490910059899</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="33">
         <f t="shared" si="6"/>
         <v>6.3690229668641729</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="29">
         <v>18.37</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="2">
         <f t="shared" si="7"/>
-        <v>14.969999999999999</v>
+        <v>14.370000000000001</v>
       </c>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E27">
+      <c r="E27" s="1">
         <v>13</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <f>F5+G5+I5</f>
         <v>1.1159753768253352E-3</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="28">
         <f t="shared" si="3"/>
         <v>851.27326258981384</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="28">
         <f t="shared" si="4"/>
         <v>896.0771185155935</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="28">
         <f t="shared" si="5"/>
         <v>940.88097444137316</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="28">
         <f t="shared" si="0"/>
         <v>23.987087355314532</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="28">
         <f t="shared" si="1"/>
         <v>21.819745702427436</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="39">
         <f t="shared" si="2"/>
         <v>19.858817540291486</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="33">
         <f t="shared" si="6"/>
         <v>7.2732485674758118</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="29">
         <v>20.63</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="2">
         <f t="shared" si="7"/>
-        <v>14.370000000000001</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E28">
+      <c r="E28" s="1">
         <v>14</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <f>F5+G5+H5</f>
         <v>1.1649714445727123E-3</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="28">
         <f t="shared" si="3"/>
         <v>815.47063185607999</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="28">
         <f t="shared" si="4"/>
         <v>858.39013879587367</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="28">
         <f t="shared" si="5"/>
         <v>901.30964573566735</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="28">
         <f t="shared" si="0"/>
         <v>24.986220326299861</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="28">
         <f t="shared" si="1"/>
         <v>22.723723152366542</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="39">
         <f t="shared" si="2"/>
         <v>20.676701899760204</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="33">
         <f t="shared" si="6"/>
         <v>7.5745743841221804</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="29">
         <v>21.4</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28" s="2">
         <f t="shared" si="7"/>
-        <v>16.63</v>
-      </c>
-    </row>
-    <row r="29" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E29">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="3">
         <v>15</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <f>F5+G5+H5+I5</f>
         <v>1.3119999975176942E-3</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="30">
         <f t="shared" si="3"/>
         <v>724.08536722362908</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="30">
         <f t="shared" si="4"/>
         <v>762.19512339329378</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="30">
         <f t="shared" si="5"/>
         <v>800.30487956295849</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="30">
         <f t="shared" si="0"/>
         <v>27.984442054643715</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="30">
         <f t="shared" si="1"/>
         <v>25.436399954201455</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="40">
         <f t="shared" si="2"/>
         <v>23.131028529991791</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="34">
         <f t="shared" si="6"/>
         <v>8.4787999847338185</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="31">
         <v>22.71</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29" s="4">
         <f t="shared" si="7"/>
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1.6843266302315913</v>
-      </c>
-      <c r="J34">
-        <v>2</v>
-      </c>
-      <c r="K34">
-        <v>4.79</v>
-      </c>
-    </row>
-    <row r="35" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>2.5022109897003064</v>
-      </c>
-      <c r="J35">
-        <v>3</v>
-      </c>
-      <c r="K35">
-        <v>7.52</v>
-      </c>
-    </row>
-    <row r="36" spans="5:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E36">
-        <v>4</v>
-      </c>
-      <c r="F36">
-        <v>4.2862964629724196</v>
-      </c>
-      <c r="J36">
-        <v>4</v>
-      </c>
-      <c r="K36">
-        <v>6.4</v>
-      </c>
-      <c r="M36" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N36" s="18"/>
-      <c r="O36" s="19"/>
-    </row>
-    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>4.9565376199318969</v>
-      </c>
-      <c r="J37">
-        <v>5</v>
-      </c>
-      <c r="K37">
-        <v>9.1</v>
-      </c>
-      <c r="M37" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="N37" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O37" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38">
-        <v>5</v>
-      </c>
-      <c r="F38">
-        <v>6.7406230932040092</v>
-      </c>
-      <c r="J38">
-        <v>6</v>
-      </c>
-      <c r="K38">
-        <v>9.9</v>
-      </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="O38" s="30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E39">
-        <v>6</v>
-      </c>
-      <c r="F39">
-        <v>7.5585074526727229</v>
-      </c>
-      <c r="J39">
-        <v>7</v>
-      </c>
-      <c r="K39">
-        <v>12.5</v>
-      </c>
-      <c r="M39" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="O39" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40">
-        <v>7</v>
-      </c>
-      <c r="F40">
-        <v>10.012834082904316</v>
-      </c>
-      <c r="J40">
-        <v>8</v>
-      </c>
-      <c r="K40">
-        <v>12.8</v>
-      </c>
-      <c r="M40" s="23">
-        <v>0</v>
-      </c>
-      <c r="N40" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="O40" s="25">
-        <v>1.23</v>
-      </c>
-      <c r="P40" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E41">
-        <v>8</v>
-      </c>
-      <c r="F41">
-        <v>10.348194447087478</v>
-      </c>
-      <c r="J41">
-        <v>9</v>
-      </c>
-      <c r="K41">
-        <v>15.3</v>
-      </c>
-      <c r="M41" s="8">
-        <v>1</v>
-      </c>
-      <c r="N41" s="9">
-        <v>1.3142256006116388</v>
-      </c>
-      <c r="O41" s="10">
-        <v>3.88</v>
-      </c>
-      <c r="P41" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E42">
-        <v>9</v>
-      </c>
-      <c r="F42">
-        <v>12.802521077319071</v>
-      </c>
-      <c r="J42">
-        <v>10</v>
-      </c>
-      <c r="K42">
-        <v>16.2</v>
-      </c>
-      <c r="M42" s="23">
-        <v>2</v>
-      </c>
-      <c r="N42" s="26">
-        <v>1.6155514172580077</v>
-      </c>
-      <c r="O42" s="27">
-        <v>4.79</v>
-      </c>
-      <c r="P42" s="6">
-        <f t="shared" ref="P42:P55" si="8">O42-4</f>
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E43">
-        <v>10</v>
-      </c>
-      <c r="F43">
-        <v>13.620405436787784</v>
-      </c>
-      <c r="J43">
-        <v>11</v>
-      </c>
-      <c r="K43">
-        <v>18.97</v>
-      </c>
-      <c r="M43" s="8">
-        <v>3</v>
-      </c>
-      <c r="N43" s="9">
-        <v>2.5197770178696461</v>
-      </c>
-      <c r="O43" s="10">
-        <v>7.52</v>
-      </c>
-      <c r="P43" s="6">
-        <f t="shared" si="8"/>
-        <v>3.5199999999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E44">
-        <v>12</v>
-      </c>
-      <c r="F44">
-        <v>15.404490910059899</v>
-      </c>
-      <c r="J44">
-        <v>12</v>
-      </c>
-      <c r="K44">
-        <v>18.37</v>
-      </c>
-      <c r="M44" s="23">
-        <v>4</v>
-      </c>
-      <c r="N44" s="26">
-        <v>2.2728460653056279</v>
-      </c>
-      <c r="O44" s="27">
-        <v>6.4</v>
-      </c>
-      <c r="P44" s="6">
-        <f t="shared" si="8"/>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="45" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E45">
-        <v>11</v>
-      </c>
-      <c r="F45">
-        <v>16.074732067019376</v>
-      </c>
-      <c r="J45">
-        <v>13</v>
-      </c>
-      <c r="K45">
-        <v>20.63</v>
-      </c>
-      <c r="M45" s="8">
-        <v>5</v>
-      </c>
-      <c r="N45" s="9">
-        <v>3.1770716659172673</v>
-      </c>
-      <c r="O45" s="10">
-        <v>9.1</v>
-      </c>
-      <c r="P45" s="6">
-        <f t="shared" si="8"/>
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E46">
-        <v>13</v>
-      </c>
-      <c r="F46">
-        <v>17.858817540291486</v>
-      </c>
-      <c r="J46">
-        <v>14</v>
-      </c>
-      <c r="K46">
-        <v>21.4</v>
-      </c>
-      <c r="M46" s="23">
-        <v>6</v>
-      </c>
-      <c r="N46" s="26">
-        <v>3.4783974825636359</v>
-      </c>
-      <c r="O46" s="27">
-        <v>9.9</v>
-      </c>
-      <c r="P46" s="6">
-        <f t="shared" si="8"/>
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="47" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E47">
-        <v>14</v>
-      </c>
-      <c r="F47">
-        <v>18.676701899760204</v>
-      </c>
-      <c r="J47">
-        <v>15</v>
-      </c>
-      <c r="K47">
-        <v>22.71</v>
-      </c>
-      <c r="M47" s="8">
-        <v>7</v>
-      </c>
-      <c r="N47" s="9">
-        <v>4.3826230831752735</v>
-      </c>
-      <c r="O47" s="10">
-        <v>12.5</v>
-      </c>
-      <c r="P47" s="6">
-        <f t="shared" si="8"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="48" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E48">
-        <v>15</v>
-      </c>
-      <c r="F48">
-        <v>21.131028529991791</v>
-      </c>
-      <c r="M48" s="23">
-        <v>8</v>
-      </c>
-      <c r="N48" s="26">
-        <v>4.5061769015585451</v>
-      </c>
-      <c r="O48" s="27">
-        <v>12.8</v>
-      </c>
-      <c r="P48" s="6">
-        <f t="shared" si="8"/>
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="49" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M49" s="8">
-        <v>9</v>
-      </c>
-      <c r="N49" s="9">
-        <v>5.4104025021701831</v>
-      </c>
-      <c r="O49" s="10">
-        <v>15.3</v>
-      </c>
-      <c r="P49" s="6">
-        <f t="shared" si="8"/>
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="50" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M50" s="23">
-        <v>10</v>
-      </c>
-      <c r="N50" s="26">
-        <v>5.7117283188165517</v>
-      </c>
-      <c r="O50" s="27">
-        <v>16.2</v>
-      </c>
-      <c r="P50" s="6">
-        <f t="shared" si="8"/>
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="51" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M51" s="8">
-        <v>11</v>
-      </c>
-      <c r="N51" s="9">
-        <v>6.6159539194281924</v>
-      </c>
-      <c r="O51" s="10">
-        <v>18.97</v>
-      </c>
-      <c r="P51" s="6">
-        <f t="shared" si="8"/>
-        <v>14.969999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M52" s="23">
-        <v>12</v>
-      </c>
-      <c r="N52" s="26">
-        <v>6.3690229668641729</v>
-      </c>
-      <c r="O52" s="27">
-        <v>18.37</v>
-      </c>
-      <c r="P52" s="6">
-        <f t="shared" si="8"/>
-        <v>14.370000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M53" s="8">
-        <v>13</v>
-      </c>
-      <c r="N53" s="9">
-        <v>7.2732485674758118</v>
-      </c>
-      <c r="O53" s="10">
-        <v>20.63</v>
-      </c>
-      <c r="P53" s="6">
-        <f t="shared" si="8"/>
-        <v>16.63</v>
-      </c>
-    </row>
-    <row r="54" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M54" s="23">
-        <v>14</v>
-      </c>
-      <c r="N54" s="26">
-        <v>7.5745743841221804</v>
-      </c>
-      <c r="O54" s="27">
-        <v>21.4</v>
-      </c>
-      <c r="P54" s="6">
-        <f t="shared" si="8"/>
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="13:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M55" s="11">
-        <v>15</v>
-      </c>
-      <c r="N55" s="12">
-        <v>8.4787999847338185</v>
-      </c>
-      <c r="O55" s="13">
-        <v>22.71</v>
-      </c>
-      <c r="P55" s="6">
-        <f t="shared" si="8"/>
         <v>18.71</v>
       </c>
+    </row>
+    <row r="33" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K33" s="5"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+    </row>
+    <row r="34" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K34" s="5"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+    </row>
+    <row r="35" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K35" s="5"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+    </row>
+    <row r="36" spans="11:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K36" s="5"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+    </row>
+    <row r="37" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K37" s="5"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+    </row>
+    <row r="38" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K38" s="5"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+    </row>
+    <row r="39" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K39" s="5"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+    </row>
+    <row r="40" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K40" s="5"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+    </row>
+    <row r="41" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K41" s="5"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+    </row>
+    <row r="42" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K42" s="5"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+    </row>
+    <row r="43" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K43" s="5"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+    </row>
+    <row r="44" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K44" s="5"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+    </row>
+    <row r="45" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K45" s="5"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+    </row>
+    <row r="46" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K46" s="5"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+    </row>
+    <row r="47" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K47" s="5"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+    </row>
+    <row r="48" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K48" s="5"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+    </row>
+    <row r="49" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K49" s="5"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+    </row>
+    <row r="50" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K50" s="5"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+    </row>
+    <row r="51" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K51" s="5"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+    </row>
+    <row r="52" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K52" s="5"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+    </row>
+    <row r="53" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K53" s="5"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+    </row>
+    <row r="54" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K54" s="5"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+    </row>
+    <row r="55" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K55" s="5"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+    </row>
+    <row r="56" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K56" s="5"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+    </row>
+    <row r="57" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K57" s="5"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+    </row>
+    <row r="58" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E33:F48">
